--- a/实验统计.xlsx
+++ b/实验统计.xlsx
@@ -1,140 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superman/Desktop/天池/新人赛/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView windowWidth="21500" windowHeight="11330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>相关性下界</t>
-    <rPh sb="0" eb="1">
-      <t>xiang g x</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xia jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常点处理</t>
+  </si>
+  <si>
+    <t>放缩</t>
+  </si>
+  <si>
+    <t>模型</t>
   </si>
   <si>
     <t>MSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常点处理</t>
-    <rPh sb="0" eb="1">
-      <t>yi chang dian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chu li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>边界值代替</t>
   </si>
   <si>
-    <t>边界值代替</t>
-    <rPh sb="0" eb="1">
-      <t>bian jie zhi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dai ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放缩</t>
-    <rPh sb="0" eb="1">
-      <t>fang s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <rPh sb="0" eb="1">
-      <t>mo x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(x-x.mean())/(x.max()-x.min())</t>
   </si>
   <si>
     <t>线性回归</t>
-    <rPh sb="0" eb="1">
-      <t>xian x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(x-x.mean())/(x.max()-x.min())</t>
   </si>
   <si>
     <t>(x-x.min())/(x.max()-x.min())</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SVR(kernel='rbf', gamma=0.04, C=100)</t>
   </si>
   <si>
     <t>GBR()</t>
+  </si>
+  <si>
+    <t>Linear+GBR</t>
+  </si>
+  <si>
+    <t>ploy,degree=3</t>
+  </si>
+  <si>
+    <t>ploy,degree=2</t>
+  </si>
+  <si>
+    <t>ploy,degree=2+ElasticNet</t>
+  </si>
+  <si>
+    <t>ploy,degree=4+ElasticNet</t>
+  </si>
+  <si>
+    <t>ploy,degree=4+ElasticNet(l1_ratio = 0)</t>
+  </si>
+  <si>
+    <t>ploy,degree=2+ElasticNet(l1_ratio = 0)</t>
+  </si>
+  <si>
+    <t>ploy,degree=4+ElasticNet(l1_ratio = 1)</t>
+  </si>
+  <si>
+    <t>ploy,degree=2+ElasticNet(l1_ratio = 1)</t>
+  </si>
+  <si>
+    <t>alpha=0.005,l1_ratio = 0,degree=2</t>
+  </si>
+  <si>
+    <t>alpha=0.010,l1_ratio = 0,degree=2</t>
+  </si>
+  <si>
+    <t>alpha=0.001,l1_ratio = 0,degree=2</t>
+  </si>
+  <si>
+    <t>alpha=0.0001,l1_ratio = 0,degree=2</t>
+  </si>
+  <si>
+    <t>alpha=0.0001,l1_ratio = 0,degree=4</t>
+  </si>
+  <si>
+    <t>alpha=0.0001,l1_ratio = 0,degree=6</t>
+  </si>
+  <si>
+    <t>degree=8,超内存</t>
+  </si>
+  <si>
+    <t>alpha=0.00001,l1_ratio = 0,degree=6</t>
+  </si>
+  <si>
+    <t>alpha=0.0001,l1_ratio = 0.5,degree=4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,20 +125,340 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,38 +466,299 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -247,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,72 +1020,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>0.11298988345200001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.112989883452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0.1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -530,15 +1091,15 @@
         <v>0.114966677059</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>0.2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -547,66 +1108,66 @@
         <v>0.120851363004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>0.3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0.12247857164500001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.122478571645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>0.4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0.13430164007299999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.134301640073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>0.11298988345200001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.112989883452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>0.1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -615,15 +1176,15 @@
         <v>0.114966677059</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>0.2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -632,213 +1193,522 @@
         <v>0.120851363004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>0.3</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0.12247857164500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.122478571645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>0.4</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>0.13430164007299999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.134301640073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
       </c>
       <c r="E12">
         <v>0.110986528219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>0.1</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13">
-        <v>0.11052080634899999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.110520806349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>0.2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
       </c>
       <c r="E14">
         <v>0.111641916933</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>0.3</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
       </c>
       <c r="E15">
         <v>0.115336813776</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>0.4</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
       </c>
       <c r="E16">
         <v>0.128930818536</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>0.12530690000399999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.125306900004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>0.1</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>0.12572241826300001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.125722418263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>0.2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0.128867943481</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>0.3</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0.131845001219</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>0.4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0.138240898074</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0.1298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0.202989151784092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0.131032003421692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>1.01219996442294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1.01219996442294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>0.278486201262683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0.32030466900119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>0.4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>1.01219996442294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>1.01219996442294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0.132129179243449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>0.136358831514668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>0.129436229927951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>0.128563073474794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>0.123097954979062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0.4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>0.125345761161076</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0.4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>0.140774130659211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0.4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>0.122749324972856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0.2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>0.112990430111781</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>